--- a/src/main/resources/static/template_order.xlsx
+++ b/src/main/resources/static/template_order.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\meal\src\main\resources\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="orders" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -361,14 +366,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,352 +376,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -745,316 +413,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,36 +723,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="14.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="10.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="10.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="8.22222222222222" customWidth="1"/>
-    <col min="10" max="10" width="22.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="13.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="34.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="28.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="23.8796296296296" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="22.375" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="34.25" customWidth="1"/>
+    <col min="13" max="13" width="28.125" customWidth="1"/>
+    <col min="14" max="14" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1498,7 +880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1542,7 +924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1626,7 +1008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1670,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1710,7 +1092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -1754,7 +1136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1798,7 +1180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -1842,7 +1224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1886,7 +1268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1926,7 +1308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1970,7 +1352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2014,7 +1396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +1440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -2102,7 +1484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -2146,7 +1528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2186,7 +1568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2226,7 +1608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -2270,7 +1652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -2314,7 +1696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -2355,11 +1737,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 D21 B22 D22 B23 D23 B2:B21 D2:D4 D5:D20 F2:F8 F10:F12 F13:F19 F20:F23 H2:H6 H7:H9 H10:H14 H15:H18 H19:H23 J2:J9 J10:J16 J17:J22"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/template_order.xlsx
+++ b/src/main/resources/static/template_order.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="118">
   <si>
     <t>下单人</t>
   </si>
@@ -361,13 +361,39 @@
   </si>
   <si>
     <t>2020-12-07 15:46:17</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +404,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,12 +451,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,7 +769,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -993,8 +1030,8 @@
       <c r="H6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
+      <c r="I6" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1033,8 +1070,8 @@
       <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
+      <c r="I7" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>54</v>
@@ -1333,8 +1370,8 @@
       <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
+      <c r="I14" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>88</v>
@@ -1409,8 +1446,8 @@
       <c r="D16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
+      <c r="E16" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>47</v>
@@ -1581,8 +1618,8 @@
       <c r="D20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
+      <c r="E20" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1742,6 +1779,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 D21 B22 D22 B23 D23 B2:B21 D2:D4 D5:D20 F2:F8 F10:F12 F13:F19 F20:F23 H2:H6 H7:H9 H10:H14 H15:H18 H19:H23 J2:J9 J10:J16 J17:J22"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>